--- a/test/evol2.xlsx
+++ b/test/evol2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chester/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\cloud-virtualization-network-reliabilty\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CEF260B-E4AD-F140-8491-4EBA34BE8FB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EAD51A-064D-4AB0-A5E1-64D550976B8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1960" windowWidth="27040" windowHeight="15540" xr2:uid="{0746C58D-5CB5-254A-89E5-A95BA2F1FF80}"/>
+    <workbookView xWindow="1478" yWindow="1958" windowWidth="27038" windowHeight="15540" xr2:uid="{0746C58D-5CB5-254A-89E5-A95BA2F1FF80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -51,9 +42,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>['V1']</t>
-  </si>
-  <si>
     <t>[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -62,17 +50,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>['V1','V4']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[2.2,2.4]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>['V4']</t>
-  </si>
-  <si>
     <t>[2.4,3]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -103,13 +84,22 @@
   <si>
     <t>[4,5]</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>['V3']</t>
+  </si>
+  <si>
+    <t>['V3','V6']</t>
+  </si>
+  <si>
+    <t>['V6']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -200,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,12 +489,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,96 +505,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/evol2.xlsx
+++ b/test/evol2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\cloud-virtualization-network-reliabilty\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EAD51A-064D-4AB0-A5E1-64D550976B8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC459F-9B16-4A42-9830-5511287DBB9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1478" yWindow="1958" windowWidth="27038" windowHeight="15540" xr2:uid="{0746C58D-5CB5-254A-89E5-A95BA2F1FF80}"/>
   </bookViews>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>['S1','T2']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[3.6,4]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -89,10 +85,15 @@
     <t>['V3']</t>
   </si>
   <si>
-    <t>['V3','V6']</t>
-  </si>
-  <si>
     <t>['V6']</t>
+  </si>
+  <si>
+    <t>['V6']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -489,7 +490,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -510,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -524,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -532,10 +533,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -546,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -565,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -573,18 +574,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>

--- a/test/evol2.xlsx
+++ b/test/evol2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\cloud-virtualization-network-reliabilty\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chester/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC459F-9B16-4A42-9830-5511287DBB9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1732DE5D-8490-1C45-85B0-AC33DC9A9D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1478" yWindow="1958" windowWidth="27038" windowHeight="15540" xr2:uid="{0746C58D-5CB5-254A-89E5-A95BA2F1FF80}"/>
+    <workbookView xWindow="1480" yWindow="1960" windowWidth="27040" windowHeight="15540" xr2:uid="{0746C58D-5CB5-254A-89E5-A95BA2F1FF80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -42,6 +51,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>['V1']</t>
+  </si>
+  <si>
     <t>[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -50,10 +62,17 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>['V1','V4']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>[2.2,2.4]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>['V4']</t>
+  </si>
+  <si>
     <t>[2.4,3]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -74,33 +93,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>['T2']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[4,5]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>['V3']</t>
-  </si>
-  <si>
-    <t>['V6']</t>
-  </si>
-  <si>
-    <t>['V6']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>['T1']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>['S1','T1']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -191,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -489,13 +498,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EC4BA7-6346-7145-AF61-11B96870B522}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,97 +515,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>